--- a/data_year/zb/金融业/保险公司资金运用情况.xlsx
+++ b/data_year/zb/金融业/保险公司资金运用情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,426 +468,301 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>639.732947</v>
+        <v>7935.69</v>
       </c>
       <c r="C2" t="n">
-        <v>2618.435574</v>
+        <v>4815.78</v>
       </c>
       <c r="D2" t="n">
-        <v>666.323405</v>
+        <v>2620.73</v>
       </c>
       <c r="E2" t="n">
-        <v>1026.250594</v>
+        <v>10038.75</v>
       </c>
       <c r="F2" t="n">
-        <v>5071.097008</v>
+        <v>13909.97</v>
       </c>
       <c r="G2" t="n">
-        <v>10778.619968</v>
+        <v>46046.62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1204.551621</v>
+        <v>8755.860000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>3590.649548</v>
+        <v>4741.9</v>
       </c>
       <c r="D3" t="n">
-        <v>1106.998877</v>
+        <v>2909.92</v>
       </c>
       <c r="E3" t="n">
-        <v>1804.714716</v>
+        <v>12418.8</v>
       </c>
       <c r="F3" t="n">
-        <v>5165.552082</v>
+        <v>17692.69</v>
       </c>
       <c r="G3" t="n">
-        <v>14092.690854</v>
+        <v>55192.98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2121.5641</v>
+        <v>10899.98</v>
       </c>
       <c r="C4" t="n">
-        <v>3647.012213</v>
+        <v>4795.02</v>
       </c>
       <c r="D4" t="n">
-        <v>912.084917</v>
+        <v>3625.58</v>
       </c>
       <c r="E4" t="n">
-        <v>2754.254641</v>
+        <v>14832.57</v>
       </c>
       <c r="F4" t="n">
-        <v>5989.10812</v>
+        <v>23446</v>
       </c>
       <c r="G4" t="n">
-        <v>17785.398357</v>
+        <v>68542.58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2799.76</v>
+        <v>13727.75</v>
       </c>
       <c r="C5" t="n">
-        <v>3956.56</v>
+        <v>4776.73</v>
       </c>
       <c r="D5" t="n">
-        <v>2519.41</v>
+        <v>3575.52</v>
       </c>
       <c r="E5" t="n">
-        <v>4897.84</v>
+        <v>14811.84</v>
       </c>
       <c r="F5" t="n">
-        <v>6503.44</v>
+        <v>22640.98</v>
       </c>
       <c r="G5" t="n">
-        <v>26647.81</v>
+        <v>76873.41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4598.46</v>
+        <v>15465.13</v>
       </c>
       <c r="C6" t="n">
-        <v>4208.26</v>
+        <v>5009.88</v>
       </c>
       <c r="D6" t="n">
-        <v>1646.46</v>
+        <v>4714.28</v>
       </c>
       <c r="E6" t="n">
-        <v>8754.059999999999</v>
+        <v>15067.12</v>
       </c>
       <c r="F6" t="n">
-        <v>8087.49</v>
+        <v>25310.73</v>
       </c>
       <c r="G6" t="n">
-        <v>30552.83</v>
+        <v>93314.42999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6074.5583</v>
+        <v>17307.38</v>
       </c>
       <c r="C7" t="n">
-        <v>4053.816374</v>
+        <v>5831.12</v>
       </c>
       <c r="D7" t="n">
-        <v>2758.782178</v>
+        <v>8856.5</v>
       </c>
       <c r="E7" t="n">
-        <v>8746.102262</v>
+        <v>15215.31</v>
       </c>
       <c r="F7" t="n">
-        <v>10519.68317</v>
+        <v>24349.67</v>
       </c>
       <c r="G7" t="n">
-        <v>37417.115565</v>
+        <v>111795.49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7935.69</v>
+        <v>18627.9933385455</v>
       </c>
       <c r="C8" t="n">
-        <v>4815.78</v>
+        <v>7796.2409350529</v>
       </c>
       <c r="D8" t="n">
-        <v>2620.73</v>
+        <v>8554.456946439401</v>
       </c>
       <c r="E8" t="n">
-        <v>10038.75</v>
+        <v>16260.3460452554</v>
       </c>
       <c r="F8" t="n">
-        <v>13909.97</v>
+        <v>24844.2107306972</v>
       </c>
       <c r="G8" t="n">
-        <v>46046.62</v>
+        <v>133910.672633759</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8755.860000000001</v>
+        <v>19436.76</v>
       </c>
       <c r="C9" t="n">
-        <v>4741.9</v>
+        <v>10167.99</v>
       </c>
       <c r="D9" t="n">
-        <v>2909.92</v>
+        <v>7524.77</v>
       </c>
       <c r="E9" t="n">
-        <v>12418.8</v>
+        <v>19153.05</v>
       </c>
       <c r="F9" t="n">
-        <v>17692.69</v>
+        <v>19274.07</v>
       </c>
       <c r="G9" t="n">
-        <v>55192.98</v>
+        <v>149206.21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10899.98</v>
+        <v>21011.68</v>
       </c>
       <c r="C10" t="n">
-        <v>4795.02</v>
+        <v>14027.62</v>
       </c>
       <c r="D10" t="n">
-        <v>3625.58</v>
+        <v>8650.549999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>14832.57</v>
+        <v>20215.82</v>
       </c>
       <c r="F10" t="n">
-        <v>23446</v>
+        <v>24363.5</v>
       </c>
       <c r="G10" t="n">
-        <v>68542.58</v>
+        <v>164088.38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13727.75</v>
+        <v>21462.8359777551</v>
       </c>
       <c r="C11" t="n">
-        <v>4776.73</v>
+        <v>20672.0056832924</v>
       </c>
       <c r="D11" t="n">
-        <v>3575.52</v>
+        <v>9423.285900298701</v>
       </c>
       <c r="E11" t="n">
-        <v>14811.84</v>
+        <v>20658.191822611</v>
       </c>
       <c r="F11" t="n">
-        <v>22640.98</v>
+        <v>25227.420231897</v>
       </c>
       <c r="G11" t="n">
-        <v>76873.41</v>
+        <v>185270.575774146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15465.13</v>
+        <v>23654.1683656365</v>
       </c>
       <c r="C12" t="n">
-        <v>5009.88</v>
+        <v>32069.5966432078</v>
       </c>
       <c r="D12" t="n">
-        <v>4714.28</v>
+        <v>11040.409624592</v>
       </c>
       <c r="E12" t="n">
-        <v>15067.12</v>
+        <v>20940.9532093361</v>
       </c>
       <c r="F12" t="n">
-        <v>25310.73</v>
+        <v>25973.4460122025</v>
       </c>
       <c r="G12" t="n">
-        <v>93314.42999999999</v>
+        <v>216801.12910661</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17307.38</v>
+        <v>22639.22</v>
       </c>
       <c r="C13" t="n">
-        <v>5831.12</v>
+        <v>43054.84</v>
       </c>
       <c r="D13" t="n">
-        <v>8856.5</v>
+        <v>12248.02</v>
       </c>
       <c r="E13" t="n">
-        <v>15215.31</v>
+        <v>20627.14</v>
       </c>
       <c r="F13" t="n">
-        <v>24349.67</v>
+        <v>26178.59</v>
       </c>
       <c r="G13" t="n">
-        <v>111795.49</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>18627.9933385455</v>
-      </c>
-      <c r="C14" t="n">
-        <v>7796.2409350529</v>
-      </c>
-      <c r="D14" t="n">
-        <v>8554.456946439401</v>
-      </c>
-      <c r="E14" t="n">
-        <v>16260.3460452554</v>
-      </c>
-      <c r="F14" t="n">
-        <v>24844.2107306972</v>
-      </c>
-      <c r="G14" t="n">
-        <v>133910.672633759</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>19436.76</v>
-      </c>
-      <c r="C15" t="n">
-        <v>10167.99</v>
-      </c>
-      <c r="D15" t="n">
-        <v>7524.77</v>
-      </c>
-      <c r="E15" t="n">
-        <v>19153.05</v>
-      </c>
-      <c r="F15" t="n">
-        <v>19274.07</v>
-      </c>
-      <c r="G15" t="n">
-        <v>149206.21</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>21011.68</v>
-      </c>
-      <c r="C16" t="n">
-        <v>14027.62</v>
-      </c>
-      <c r="D16" t="n">
-        <v>8650.549999999999</v>
-      </c>
-      <c r="E16" t="n">
-        <v>20215.82</v>
-      </c>
-      <c r="F16" t="n">
-        <v>24363.5</v>
-      </c>
-      <c r="G16" t="n">
-        <v>164088.38</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>21462.8359777551</v>
-      </c>
-      <c r="C17" t="n">
-        <v>20672.0056832924</v>
-      </c>
-      <c r="D17" t="n">
-        <v>9423.285900298701</v>
-      </c>
-      <c r="E17" t="n">
-        <v>20658.191822611</v>
-      </c>
-      <c r="F17" t="n">
-        <v>25227.420231897</v>
-      </c>
-      <c r="G17" t="n">
-        <v>185270.575774146</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>23654.1683656365</v>
-      </c>
-      <c r="C18" t="n">
-        <v>32069.5966432078</v>
-      </c>
-      <c r="D18" t="n">
-        <v>11040.409624592</v>
-      </c>
-      <c r="E18" t="n">
-        <v>20940.9532093361</v>
-      </c>
-      <c r="F18" t="n">
-        <v>25973.4460122025</v>
-      </c>
-      <c r="G18" t="n">
-        <v>216801.12910661</v>
+        <v>232280.06</v>
       </c>
     </row>
   </sheetData>
